--- a/dades/2S3.xlsx
+++ b/dades/2S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044BA1FD-2E49-440B-8173-FF05E4D84F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467E04A8-307A-4E64-9505-AA649991A0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="161">
   <si>
     <t>departure</t>
   </si>
@@ -300,6 +300,225 @@
   </si>
   <si>
     <t>R2A.070</t>
+  </si>
+  <si>
+    <t>R21A.001</t>
+  </si>
+  <si>
+    <t>R21A.002</t>
+  </si>
+  <si>
+    <t>R21A</t>
+  </si>
+  <si>
+    <t>el Prat Aeroport</t>
+  </si>
+  <si>
+    <t>Maçanet - Massanes</t>
+  </si>
+  <si>
+    <t>R21A.003</t>
+  </si>
+  <si>
+    <t>R21A.004</t>
+  </si>
+  <si>
+    <t>R21A.005</t>
+  </si>
+  <si>
+    <t>R21A.006</t>
+  </si>
+  <si>
+    <t>R21A.007</t>
+  </si>
+  <si>
+    <t>R21A.008</t>
+  </si>
+  <si>
+    <t>R21A.009</t>
+  </si>
+  <si>
+    <t>R21A.010</t>
+  </si>
+  <si>
+    <t>R21A.011</t>
+  </si>
+  <si>
+    <t>R21A.012</t>
+  </si>
+  <si>
+    <t>R21A.013</t>
+  </si>
+  <si>
+    <t>R21A.014</t>
+  </si>
+  <si>
+    <t>R21A.015</t>
+  </si>
+  <si>
+    <t>R21A.016</t>
+  </si>
+  <si>
+    <t>R21A.017</t>
+  </si>
+  <si>
+    <t>R21A.018</t>
+  </si>
+  <si>
+    <t>R21A.019</t>
+  </si>
+  <si>
+    <t>R21A.020</t>
+  </si>
+  <si>
+    <t>R21A.021</t>
+  </si>
+  <si>
+    <t>R21A.022</t>
+  </si>
+  <si>
+    <t>R21A.023</t>
+  </si>
+  <si>
+    <t>R21A.024</t>
+  </si>
+  <si>
+    <t>R21A.025</t>
+  </si>
+  <si>
+    <t>R21A.026</t>
+  </si>
+  <si>
+    <t>R21A.027</t>
+  </si>
+  <si>
+    <t>R21A.028</t>
+  </si>
+  <si>
+    <t>R21A.029</t>
+  </si>
+  <si>
+    <t>R21A.030</t>
+  </si>
+  <si>
+    <t>R21A.031</t>
+  </si>
+  <si>
+    <t>R21A.032</t>
+  </si>
+  <si>
+    <t>R21A.033</t>
+  </si>
+  <si>
+    <t>R21A.034</t>
+  </si>
+  <si>
+    <t>R21A.035</t>
+  </si>
+  <si>
+    <t>R21A.036</t>
+  </si>
+  <si>
+    <t>R21A.037</t>
+  </si>
+  <si>
+    <t>R21A.038</t>
+  </si>
+  <si>
+    <t>R21A.039</t>
+  </si>
+  <si>
+    <t>R21A.040</t>
+  </si>
+  <si>
+    <t>R21A.041</t>
+  </si>
+  <si>
+    <t>R21A.042</t>
+  </si>
+  <si>
+    <t>R21A.043</t>
+  </si>
+  <si>
+    <t>R21A.044</t>
+  </si>
+  <si>
+    <t>R21A.045</t>
+  </si>
+  <si>
+    <t>R21A.046</t>
+  </si>
+  <si>
+    <t>R21A.047</t>
+  </si>
+  <si>
+    <t>R21A.048</t>
+  </si>
+  <si>
+    <t>R21A.049</t>
+  </si>
+  <si>
+    <t>R21A.050</t>
+  </si>
+  <si>
+    <t>R21A.051</t>
+  </si>
+  <si>
+    <t>R21A.052</t>
+  </si>
+  <si>
+    <t>R21A.053</t>
+  </si>
+  <si>
+    <t>R21A.054</t>
+  </si>
+  <si>
+    <t>R21A.055</t>
+  </si>
+  <si>
+    <t>R21A.056</t>
+  </si>
+  <si>
+    <t>R21A.057</t>
+  </si>
+  <si>
+    <t>R21A.058</t>
+  </si>
+  <si>
+    <t>R21A.059</t>
+  </si>
+  <si>
+    <t>R21A.060</t>
+  </si>
+  <si>
+    <t>R21A.061</t>
+  </si>
+  <si>
+    <t>R21A.062</t>
+  </si>
+  <si>
+    <t>R21A.063</t>
+  </si>
+  <si>
+    <t>R21A.064</t>
+  </si>
+  <si>
+    <t>R21A.065</t>
+  </si>
+  <si>
+    <t>R21A.066</t>
+  </si>
+  <si>
+    <t>R21A.067</t>
+  </si>
+  <si>
+    <t>R21A.068</t>
+  </si>
+  <si>
+    <t>R21A.069</t>
+  </si>
+  <si>
+    <t>R21A.070</t>
   </si>
 </sst>
 </file>
@@ -634,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E572"/>
+  <dimension ref="A1:E782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A530" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B461" sqref="B461:B572"/>
+    <sheetView tabSelected="1" topLeftCell="A600" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B579" sqref="B579:B614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8200,7 +8419,7 @@
         <v>8</v>
       </c>
       <c r="B430" s="1">
-        <f t="shared" ref="B430:B461" si="7">B206+(1/24)</f>
+        <f t="shared" ref="B430:B460" si="7">B206+(1/24)</f>
         <v>0.82590277777777765</v>
       </c>
       <c r="C430" t="s">
@@ -10767,6 +10986,2100 @@
       </c>
       <c r="E572" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>7</v>
+      </c>
+      <c r="B573" s="1">
+        <v>0.24797453703703706</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D573" t="s">
+        <v>90</v>
+      </c>
+      <c r="E573" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>8</v>
+      </c>
+      <c r="B574" s="1">
+        <v>0.24890046296296298</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D574" t="s">
+        <v>90</v>
+      </c>
+      <c r="E574" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>9</v>
+      </c>
+      <c r="B575" s="1">
+        <v>0.25107638888888889</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D575" t="s">
+        <v>90</v>
+      </c>
+      <c r="E575" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>9</v>
+      </c>
+      <c r="B576" s="1">
+        <v>0.26070601851851855</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D576" t="s">
+        <v>90</v>
+      </c>
+      <c r="E576" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>8</v>
+      </c>
+      <c r="B577" s="1">
+        <v>0.26299768518518518</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D577" t="s">
+        <v>90</v>
+      </c>
+      <c r="E577" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>7</v>
+      </c>
+      <c r="B578" s="1">
+        <v>0.263587962962963</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D578" t="s">
+        <v>90</v>
+      </c>
+      <c r="E578" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>7</v>
+      </c>
+      <c r="B579" s="1">
+        <f>B573+(2.5/24)</f>
+        <v>0.35214120370370372</v>
+      </c>
+      <c r="C579" t="s">
+        <v>93</v>
+      </c>
+      <c r="D579" t="s">
+        <v>90</v>
+      </c>
+      <c r="E579" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>8</v>
+      </c>
+      <c r="B580" s="1">
+        <f t="shared" ref="B580:B614" si="10">B574+(2.5/24)</f>
+        <v>0.35306712962962966</v>
+      </c>
+      <c r="C580" t="s">
+        <v>93</v>
+      </c>
+      <c r="D580" t="s">
+        <v>90</v>
+      </c>
+      <c r="E580" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>9</v>
+      </c>
+      <c r="B581" s="1">
+        <f t="shared" si="10"/>
+        <v>0.35524305555555558</v>
+      </c>
+      <c r="C581" t="s">
+        <v>93</v>
+      </c>
+      <c r="D581" t="s">
+        <v>90</v>
+      </c>
+      <c r="E581" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>9</v>
+      </c>
+      <c r="B582" s="1">
+        <f t="shared" si="10"/>
+        <v>0.36487268518518523</v>
+      </c>
+      <c r="C582" t="s">
+        <v>94</v>
+      </c>
+      <c r="D582" t="s">
+        <v>90</v>
+      </c>
+      <c r="E582" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>8</v>
+      </c>
+      <c r="B583" s="1">
+        <f t="shared" si="10"/>
+        <v>0.36716435185185187</v>
+      </c>
+      <c r="C583" t="s">
+        <v>94</v>
+      </c>
+      <c r="D583" t="s">
+        <v>90</v>
+      </c>
+      <c r="E583" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>7</v>
+      </c>
+      <c r="B584" s="1">
+        <f t="shared" si="10"/>
+        <v>0.36775462962962968</v>
+      </c>
+      <c r="C584" t="s">
+        <v>94</v>
+      </c>
+      <c r="D584" t="s">
+        <v>90</v>
+      </c>
+      <c r="E584" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>7</v>
+      </c>
+      <c r="B585" s="1">
+        <f t="shared" si="10"/>
+        <v>0.45630787037037041</v>
+      </c>
+      <c r="C585" t="s">
+        <v>95</v>
+      </c>
+      <c r="D585" t="s">
+        <v>90</v>
+      </c>
+      <c r="E585" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>8</v>
+      </c>
+      <c r="B586" s="1">
+        <f t="shared" si="10"/>
+        <v>0.45723379629629635</v>
+      </c>
+      <c r="C586" t="s">
+        <v>95</v>
+      </c>
+      <c r="D586" t="s">
+        <v>90</v>
+      </c>
+      <c r="E586" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>9</v>
+      </c>
+      <c r="B587" s="1">
+        <f t="shared" si="10"/>
+        <v>0.45940972222222226</v>
+      </c>
+      <c r="C587" t="s">
+        <v>95</v>
+      </c>
+      <c r="D587" t="s">
+        <v>90</v>
+      </c>
+      <c r="E587" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>9</v>
+      </c>
+      <c r="B588" s="1">
+        <f t="shared" si="10"/>
+        <v>0.46903935185185192</v>
+      </c>
+      <c r="C588" t="s">
+        <v>96</v>
+      </c>
+      <c r="D588" t="s">
+        <v>90</v>
+      </c>
+      <c r="E588" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>8</v>
+      </c>
+      <c r="B589" s="1">
+        <f t="shared" si="10"/>
+        <v>0.47133101851851855</v>
+      </c>
+      <c r="C589" t="s">
+        <v>96</v>
+      </c>
+      <c r="D589" t="s">
+        <v>90</v>
+      </c>
+      <c r="E589" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>7</v>
+      </c>
+      <c r="B590" s="1">
+        <f t="shared" si="10"/>
+        <v>0.47192129629629637</v>
+      </c>
+      <c r="C590" t="s">
+        <v>96</v>
+      </c>
+      <c r="D590" t="s">
+        <v>90</v>
+      </c>
+      <c r="E590" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>7</v>
+      </c>
+      <c r="B591" s="1">
+        <f t="shared" si="10"/>
+        <v>0.56047453703703709</v>
+      </c>
+      <c r="C591" t="s">
+        <v>97</v>
+      </c>
+      <c r="D591" t="s">
+        <v>90</v>
+      </c>
+      <c r="E591" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>8</v>
+      </c>
+      <c r="B592" s="1">
+        <f t="shared" si="10"/>
+        <v>0.56140046296296298</v>
+      </c>
+      <c r="C592" t="s">
+        <v>97</v>
+      </c>
+      <c r="D592" t="s">
+        <v>90</v>
+      </c>
+      <c r="E592" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>9</v>
+      </c>
+      <c r="B593" s="1">
+        <f t="shared" si="10"/>
+        <v>0.56357638888888895</v>
+      </c>
+      <c r="C593" t="s">
+        <v>97</v>
+      </c>
+      <c r="D593" t="s">
+        <v>90</v>
+      </c>
+      <c r="E593" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>9</v>
+      </c>
+      <c r="B594" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5732060185185186</v>
+      </c>
+      <c r="C594" t="s">
+        <v>98</v>
+      </c>
+      <c r="D594" t="s">
+        <v>90</v>
+      </c>
+      <c r="E594" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>8</v>
+      </c>
+      <c r="B595" s="1">
+        <f t="shared" si="10"/>
+        <v>0.57549768518518518</v>
+      </c>
+      <c r="C595" t="s">
+        <v>98</v>
+      </c>
+      <c r="D595" t="s">
+        <v>90</v>
+      </c>
+      <c r="E595" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>7</v>
+      </c>
+      <c r="B596" s="1">
+        <f t="shared" si="10"/>
+        <v>0.57608796296296305</v>
+      </c>
+      <c r="C596" t="s">
+        <v>98</v>
+      </c>
+      <c r="D596" t="s">
+        <v>90</v>
+      </c>
+      <c r="E596" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>7</v>
+      </c>
+      <c r="B597" s="1">
+        <f t="shared" si="10"/>
+        <v>0.66464120370370372</v>
+      </c>
+      <c r="C597" t="s">
+        <v>99</v>
+      </c>
+      <c r="D597" t="s">
+        <v>90</v>
+      </c>
+      <c r="E597" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>8</v>
+      </c>
+      <c r="B598" s="1">
+        <f t="shared" si="10"/>
+        <v>0.66556712962962961</v>
+      </c>
+      <c r="C598" t="s">
+        <v>99</v>
+      </c>
+      <c r="D598" t="s">
+        <v>90</v>
+      </c>
+      <c r="E598" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>9</v>
+      </c>
+      <c r="B599" s="1">
+        <f t="shared" si="10"/>
+        <v>0.66774305555555558</v>
+      </c>
+      <c r="C599" t="s">
+        <v>99</v>
+      </c>
+      <c r="D599" t="s">
+        <v>90</v>
+      </c>
+      <c r="E599" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>9</v>
+      </c>
+      <c r="B600" s="1">
+        <f t="shared" si="10"/>
+        <v>0.67737268518518523</v>
+      </c>
+      <c r="C600" t="s">
+        <v>100</v>
+      </c>
+      <c r="D600" t="s">
+        <v>90</v>
+      </c>
+      <c r="E600" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>8</v>
+      </c>
+      <c r="B601" s="1">
+        <f t="shared" si="10"/>
+        <v>0.67966435185185181</v>
+      </c>
+      <c r="C601" t="s">
+        <v>100</v>
+      </c>
+      <c r="D601" t="s">
+        <v>90</v>
+      </c>
+      <c r="E601" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>7</v>
+      </c>
+      <c r="B602" s="1">
+        <f t="shared" si="10"/>
+        <v>0.68025462962962968</v>
+      </c>
+      <c r="C602" t="s">
+        <v>100</v>
+      </c>
+      <c r="D602" t="s">
+        <v>90</v>
+      </c>
+      <c r="E602" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>7</v>
+      </c>
+      <c r="B603" s="1">
+        <f t="shared" si="10"/>
+        <v>0.76880787037037035</v>
+      </c>
+      <c r="C603" t="s">
+        <v>101</v>
+      </c>
+      <c r="D603" t="s">
+        <v>90</v>
+      </c>
+      <c r="E603" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>8</v>
+      </c>
+      <c r="B604" s="1">
+        <f t="shared" si="10"/>
+        <v>0.76973379629629624</v>
+      </c>
+      <c r="C604" t="s">
+        <v>101</v>
+      </c>
+      <c r="D604" t="s">
+        <v>90</v>
+      </c>
+      <c r="E604" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>9</v>
+      </c>
+      <c r="B605" s="1">
+        <f t="shared" si="10"/>
+        <v>0.77190972222222221</v>
+      </c>
+      <c r="C605" t="s">
+        <v>101</v>
+      </c>
+      <c r="D605" t="s">
+        <v>90</v>
+      </c>
+      <c r="E605" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>9</v>
+      </c>
+      <c r="B606" s="1">
+        <f t="shared" si="10"/>
+        <v>0.78153935185185186</v>
+      </c>
+      <c r="C606" t="s">
+        <v>102</v>
+      </c>
+      <c r="D606" t="s">
+        <v>90</v>
+      </c>
+      <c r="E606" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>8</v>
+      </c>
+      <c r="B607" s="1">
+        <f t="shared" si="10"/>
+        <v>0.78383101851851844</v>
+      </c>
+      <c r="C607" t="s">
+        <v>102</v>
+      </c>
+      <c r="D607" t="s">
+        <v>90</v>
+      </c>
+      <c r="E607" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>7</v>
+      </c>
+      <c r="B608" s="1">
+        <f t="shared" si="10"/>
+        <v>0.78442129629629631</v>
+      </c>
+      <c r="C608" t="s">
+        <v>102</v>
+      </c>
+      <c r="D608" t="s">
+        <v>90</v>
+      </c>
+      <c r="E608" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>7</v>
+      </c>
+      <c r="B609" s="1">
+        <f t="shared" si="10"/>
+        <v>0.87297453703703698</v>
+      </c>
+      <c r="C609" t="s">
+        <v>103</v>
+      </c>
+      <c r="D609" t="s">
+        <v>90</v>
+      </c>
+      <c r="E609" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>8</v>
+      </c>
+      <c r="B610" s="1">
+        <f t="shared" si="10"/>
+        <v>0.87390046296296287</v>
+      </c>
+      <c r="C610" t="s">
+        <v>103</v>
+      </c>
+      <c r="D610" t="s">
+        <v>90</v>
+      </c>
+      <c r="E610" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>9</v>
+      </c>
+      <c r="B611" s="1">
+        <f t="shared" si="10"/>
+        <v>0.87607638888888884</v>
+      </c>
+      <c r="C611" t="s">
+        <v>103</v>
+      </c>
+      <c r="D611" t="s">
+        <v>90</v>
+      </c>
+      <c r="E611" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>9</v>
+      </c>
+      <c r="B612" s="1">
+        <f t="shared" si="10"/>
+        <v>0.88570601851851849</v>
+      </c>
+      <c r="C612" t="s">
+        <v>104</v>
+      </c>
+      <c r="D612" t="s">
+        <v>90</v>
+      </c>
+      <c r="E612" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>8</v>
+      </c>
+      <c r="B613" s="1">
+        <f t="shared" si="10"/>
+        <v>0.88799768518518507</v>
+      </c>
+      <c r="C613" t="s">
+        <v>104</v>
+      </c>
+      <c r="D613" t="s">
+        <v>90</v>
+      </c>
+      <c r="E613" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>7</v>
+      </c>
+      <c r="B614" s="1">
+        <f t="shared" si="10"/>
+        <v>0.88858796296296294</v>
+      </c>
+      <c r="C614" t="s">
+        <v>104</v>
+      </c>
+      <c r="D614" t="s">
+        <v>90</v>
+      </c>
+      <c r="E614" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C615" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D615" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C616" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D616" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C617" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D617" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C618" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D618" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C619" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D619" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C620" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D620" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C621" t="s">
+        <v>107</v>
+      </c>
+      <c r="D621" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C622" t="s">
+        <v>107</v>
+      </c>
+      <c r="D622" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C623" t="s">
+        <v>107</v>
+      </c>
+      <c r="D623" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C624" t="s">
+        <v>108</v>
+      </c>
+      <c r="D624" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="625" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C625" t="s">
+        <v>108</v>
+      </c>
+      <c r="D625" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="626" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C626" t="s">
+        <v>108</v>
+      </c>
+      <c r="D626" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="627" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C627" t="s">
+        <v>109</v>
+      </c>
+      <c r="D627" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="628" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C628" t="s">
+        <v>109</v>
+      </c>
+      <c r="D628" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="629" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C629" t="s">
+        <v>109</v>
+      </c>
+      <c r="D629" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="630" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C630" t="s">
+        <v>110</v>
+      </c>
+      <c r="D630" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="631" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C631" t="s">
+        <v>110</v>
+      </c>
+      <c r="D631" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="632" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C632" t="s">
+        <v>110</v>
+      </c>
+      <c r="D632" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="633" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C633" t="s">
+        <v>111</v>
+      </c>
+      <c r="D633" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="634" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C634" t="s">
+        <v>111</v>
+      </c>
+      <c r="D634" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="635" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C635" t="s">
+        <v>111</v>
+      </c>
+      <c r="D635" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="636" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C636" t="s">
+        <v>112</v>
+      </c>
+      <c r="D636" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="637" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C637" t="s">
+        <v>112</v>
+      </c>
+      <c r="D637" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="638" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C638" t="s">
+        <v>112</v>
+      </c>
+      <c r="D638" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="639" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C639" t="s">
+        <v>113</v>
+      </c>
+      <c r="D639" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="640" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C640" t="s">
+        <v>113</v>
+      </c>
+      <c r="D640" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="641" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C641" t="s">
+        <v>113</v>
+      </c>
+      <c r="D641" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="642" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C642" t="s">
+        <v>114</v>
+      </c>
+      <c r="D642" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="643" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C643" t="s">
+        <v>114</v>
+      </c>
+      <c r="D643" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="644" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C644" t="s">
+        <v>114</v>
+      </c>
+      <c r="D644" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="645" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C645" t="s">
+        <v>115</v>
+      </c>
+      <c r="D645" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="646" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C646" t="s">
+        <v>115</v>
+      </c>
+      <c r="D646" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="647" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C647" t="s">
+        <v>115</v>
+      </c>
+      <c r="D647" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="648" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C648" t="s">
+        <v>116</v>
+      </c>
+      <c r="D648" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="649" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C649" t="s">
+        <v>116</v>
+      </c>
+      <c r="D649" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="650" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C650" t="s">
+        <v>116</v>
+      </c>
+      <c r="D650" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="651" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C651" t="s">
+        <v>117</v>
+      </c>
+      <c r="D651" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="652" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C652" t="s">
+        <v>117</v>
+      </c>
+      <c r="D652" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="653" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C653" t="s">
+        <v>117</v>
+      </c>
+      <c r="D653" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="654" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C654" t="s">
+        <v>118</v>
+      </c>
+      <c r="D654" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="655" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C655" t="s">
+        <v>118</v>
+      </c>
+      <c r="D655" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="656" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C656" t="s">
+        <v>118</v>
+      </c>
+      <c r="D656" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="657" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C657" t="s">
+        <v>119</v>
+      </c>
+      <c r="D657" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="658" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C658" t="s">
+        <v>119</v>
+      </c>
+      <c r="D658" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="659" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C659" t="s">
+        <v>119</v>
+      </c>
+      <c r="D659" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="660" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C660" t="s">
+        <v>120</v>
+      </c>
+      <c r="D660" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="661" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C661" t="s">
+        <v>120</v>
+      </c>
+      <c r="D661" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="662" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C662" t="s">
+        <v>120</v>
+      </c>
+      <c r="D662" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="663" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C663" t="s">
+        <v>121</v>
+      </c>
+      <c r="D663" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="664" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C664" t="s">
+        <v>121</v>
+      </c>
+      <c r="D664" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="665" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C665" t="s">
+        <v>121</v>
+      </c>
+      <c r="D665" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="666" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C666" t="s">
+        <v>122</v>
+      </c>
+      <c r="D666" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="667" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C667" t="s">
+        <v>122</v>
+      </c>
+      <c r="D667" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="668" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C668" t="s">
+        <v>122</v>
+      </c>
+      <c r="D668" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="669" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C669" t="s">
+        <v>123</v>
+      </c>
+      <c r="D669" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="670" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C670" t="s">
+        <v>123</v>
+      </c>
+      <c r="D670" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="671" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C671" t="s">
+        <v>123</v>
+      </c>
+      <c r="D671" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="672" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C672" t="s">
+        <v>124</v>
+      </c>
+      <c r="D672" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="673" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C673" t="s">
+        <v>124</v>
+      </c>
+      <c r="D673" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="674" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C674" t="s">
+        <v>124</v>
+      </c>
+      <c r="D674" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="675" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C675" t="s">
+        <v>125</v>
+      </c>
+      <c r="D675" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="676" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C676" t="s">
+        <v>125</v>
+      </c>
+      <c r="D676" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="677" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C677" t="s">
+        <v>125</v>
+      </c>
+      <c r="D677" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="678" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C678" t="s">
+        <v>126</v>
+      </c>
+      <c r="D678" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="679" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C679" t="s">
+        <v>126</v>
+      </c>
+      <c r="D679" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="680" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C680" t="s">
+        <v>126</v>
+      </c>
+      <c r="D680" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="681" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C681" t="s">
+        <v>127</v>
+      </c>
+      <c r="D681" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="682" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C682" t="s">
+        <v>127</v>
+      </c>
+      <c r="D682" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="683" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C683" t="s">
+        <v>127</v>
+      </c>
+      <c r="D683" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="684" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C684" t="s">
+        <v>128</v>
+      </c>
+      <c r="D684" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="685" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C685" t="s">
+        <v>128</v>
+      </c>
+      <c r="D685" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="686" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C686" t="s">
+        <v>128</v>
+      </c>
+      <c r="D686" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="687" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C687" t="s">
+        <v>129</v>
+      </c>
+      <c r="D687" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="688" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C688" t="s">
+        <v>129</v>
+      </c>
+      <c r="D688" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="689" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C689" t="s">
+        <v>129</v>
+      </c>
+      <c r="D689" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="690" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C690" t="s">
+        <v>130</v>
+      </c>
+      <c r="D690" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="691" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C691" t="s">
+        <v>130</v>
+      </c>
+      <c r="D691" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="692" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C692" t="s">
+        <v>130</v>
+      </c>
+      <c r="D692" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="693" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C693" t="s">
+        <v>131</v>
+      </c>
+      <c r="D693" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="694" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C694" t="s">
+        <v>131</v>
+      </c>
+      <c r="D694" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="695" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C695" t="s">
+        <v>131</v>
+      </c>
+      <c r="D695" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="696" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C696" t="s">
+        <v>132</v>
+      </c>
+      <c r="D696" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="697" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C697" t="s">
+        <v>132</v>
+      </c>
+      <c r="D697" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="698" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C698" t="s">
+        <v>132</v>
+      </c>
+      <c r="D698" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="699" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C699" t="s">
+        <v>133</v>
+      </c>
+      <c r="D699" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="700" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C700" t="s">
+        <v>133</v>
+      </c>
+      <c r="D700" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="701" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C701" t="s">
+        <v>133</v>
+      </c>
+      <c r="D701" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="702" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C702" t="s">
+        <v>134</v>
+      </c>
+      <c r="D702" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="703" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C703" t="s">
+        <v>134</v>
+      </c>
+      <c r="D703" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="704" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C704" t="s">
+        <v>134</v>
+      </c>
+      <c r="D704" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="705" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C705" t="s">
+        <v>135</v>
+      </c>
+      <c r="D705" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="706" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C706" t="s">
+        <v>135</v>
+      </c>
+      <c r="D706" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="707" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C707" t="s">
+        <v>135</v>
+      </c>
+      <c r="D707" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="708" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C708" t="s">
+        <v>136</v>
+      </c>
+      <c r="D708" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="709" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C709" t="s">
+        <v>136</v>
+      </c>
+      <c r="D709" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="710" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C710" t="s">
+        <v>136</v>
+      </c>
+      <c r="D710" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="711" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C711" t="s">
+        <v>137</v>
+      </c>
+      <c r="D711" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="712" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C712" t="s">
+        <v>137</v>
+      </c>
+      <c r="D712" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="713" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C713" t="s">
+        <v>137</v>
+      </c>
+      <c r="D713" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="714" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C714" t="s">
+        <v>138</v>
+      </c>
+      <c r="D714" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="715" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C715" t="s">
+        <v>138</v>
+      </c>
+      <c r="D715" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="716" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C716" t="s">
+        <v>138</v>
+      </c>
+      <c r="D716" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="717" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C717" t="s">
+        <v>139</v>
+      </c>
+      <c r="D717" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="718" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C718" t="s">
+        <v>139</v>
+      </c>
+      <c r="D718" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="719" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C719" t="s">
+        <v>139</v>
+      </c>
+      <c r="D719" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="720" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C720" t="s">
+        <v>140</v>
+      </c>
+      <c r="D720" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="721" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C721" t="s">
+        <v>140</v>
+      </c>
+      <c r="D721" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="722" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C722" t="s">
+        <v>140</v>
+      </c>
+      <c r="D722" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="723" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C723" t="s">
+        <v>141</v>
+      </c>
+      <c r="D723" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="724" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C724" t="s">
+        <v>141</v>
+      </c>
+      <c r="D724" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="725" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C725" t="s">
+        <v>141</v>
+      </c>
+      <c r="D725" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="726" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C726" t="s">
+        <v>142</v>
+      </c>
+      <c r="D726" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="727" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C727" t="s">
+        <v>142</v>
+      </c>
+      <c r="D727" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="728" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C728" t="s">
+        <v>142</v>
+      </c>
+      <c r="D728" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="729" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C729" t="s">
+        <v>143</v>
+      </c>
+      <c r="D729" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="730" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C730" t="s">
+        <v>143</v>
+      </c>
+      <c r="D730" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="731" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C731" t="s">
+        <v>143</v>
+      </c>
+      <c r="D731" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="732" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C732" t="s">
+        <v>144</v>
+      </c>
+      <c r="D732" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="733" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C733" t="s">
+        <v>144</v>
+      </c>
+      <c r="D733" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="734" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C734" t="s">
+        <v>144</v>
+      </c>
+      <c r="D734" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="735" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C735" t="s">
+        <v>145</v>
+      </c>
+      <c r="D735" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="736" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C736" t="s">
+        <v>145</v>
+      </c>
+      <c r="D736" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="737" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C737" t="s">
+        <v>145</v>
+      </c>
+      <c r="D737" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="738" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C738" t="s">
+        <v>146</v>
+      </c>
+      <c r="D738" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="739" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C739" t="s">
+        <v>146</v>
+      </c>
+      <c r="D739" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="740" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C740" t="s">
+        <v>146</v>
+      </c>
+      <c r="D740" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="741" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C741" t="s">
+        <v>147</v>
+      </c>
+      <c r="D741" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="742" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C742" t="s">
+        <v>147</v>
+      </c>
+      <c r="D742" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="743" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C743" t="s">
+        <v>147</v>
+      </c>
+      <c r="D743" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="744" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C744" t="s">
+        <v>148</v>
+      </c>
+      <c r="D744" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="745" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C745" t="s">
+        <v>148</v>
+      </c>
+      <c r="D745" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="746" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C746" t="s">
+        <v>148</v>
+      </c>
+      <c r="D746" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="747" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C747" t="s">
+        <v>149</v>
+      </c>
+      <c r="D747" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="748" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C748" t="s">
+        <v>149</v>
+      </c>
+      <c r="D748" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="749" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C749" t="s">
+        <v>149</v>
+      </c>
+      <c r="D749" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="750" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C750" t="s">
+        <v>150</v>
+      </c>
+      <c r="D750" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="751" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C751" t="s">
+        <v>150</v>
+      </c>
+      <c r="D751" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="752" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C752" t="s">
+        <v>150</v>
+      </c>
+      <c r="D752" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="753" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C753" t="s">
+        <v>151</v>
+      </c>
+      <c r="D753" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="754" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C754" t="s">
+        <v>151</v>
+      </c>
+      <c r="D754" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="755" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C755" t="s">
+        <v>151</v>
+      </c>
+      <c r="D755" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="756" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C756" t="s">
+        <v>152</v>
+      </c>
+      <c r="D756" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="757" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C757" t="s">
+        <v>152</v>
+      </c>
+      <c r="D757" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="758" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C758" t="s">
+        <v>152</v>
+      </c>
+      <c r="D758" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="759" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C759" t="s">
+        <v>153</v>
+      </c>
+      <c r="D759" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="760" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C760" t="s">
+        <v>153</v>
+      </c>
+      <c r="D760" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="761" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C761" t="s">
+        <v>153</v>
+      </c>
+      <c r="D761" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="762" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C762" t="s">
+        <v>154</v>
+      </c>
+      <c r="D762" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="763" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C763" t="s">
+        <v>154</v>
+      </c>
+      <c r="D763" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="764" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C764" t="s">
+        <v>154</v>
+      </c>
+      <c r="D764" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="765" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C765" t="s">
+        <v>155</v>
+      </c>
+      <c r="D765" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="766" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C766" t="s">
+        <v>155</v>
+      </c>
+      <c r="D766" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="767" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C767" t="s">
+        <v>155</v>
+      </c>
+      <c r="D767" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="768" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C768" t="s">
+        <v>156</v>
+      </c>
+      <c r="D768" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="769" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C769" t="s">
+        <v>156</v>
+      </c>
+      <c r="D769" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="770" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C770" t="s">
+        <v>156</v>
+      </c>
+      <c r="D770" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="771" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C771" t="s">
+        <v>157</v>
+      </c>
+      <c r="D771" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="772" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C772" t="s">
+        <v>157</v>
+      </c>
+      <c r="D772" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="773" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C773" t="s">
+        <v>157</v>
+      </c>
+      <c r="D773" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="774" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C774" t="s">
+        <v>158</v>
+      </c>
+      <c r="D774" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="775" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C775" t="s">
+        <v>158</v>
+      </c>
+      <c r="D775" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="776" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C776" t="s">
+        <v>158</v>
+      </c>
+      <c r="D776" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="777" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C777" t="s">
+        <v>159</v>
+      </c>
+      <c r="D777" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="778" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C778" t="s">
+        <v>159</v>
+      </c>
+      <c r="D778" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="779" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C779" t="s">
+        <v>159</v>
+      </c>
+      <c r="D779" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="780" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C780" t="s">
+        <v>160</v>
+      </c>
+      <c r="D780" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="781" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C781" t="s">
+        <v>160</v>
+      </c>
+      <c r="D781" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="782" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C782" t="s">
+        <v>160</v>
+      </c>
+      <c r="D782" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/dades/2S3.xlsx
+++ b/dades/2S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31567DCF-7C8C-4459-8563-EB2A8A9EFE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F71DDC9-9FE6-4748-B6C0-0AA3DC8334AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5976" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6296" uniqueCount="253">
   <si>
     <t>departure</t>
   </si>
@@ -742,6 +742,60 @@
   <si>
     <t>R22A.072</t>
   </si>
+  <si>
+    <t>R2B.001</t>
+  </si>
+  <si>
+    <t>R2B.002</t>
+  </si>
+  <si>
+    <t>R2B</t>
+  </si>
+  <si>
+    <t>Sant Celoni</t>
+  </si>
+  <si>
+    <t>R2B.003</t>
+  </si>
+  <si>
+    <t>R2B.004</t>
+  </si>
+  <si>
+    <t>R2B.005</t>
+  </si>
+  <si>
+    <t>R2B.006</t>
+  </si>
+  <si>
+    <t>R2B.007</t>
+  </si>
+  <si>
+    <t>R2B.008</t>
+  </si>
+  <si>
+    <t>R2B.009</t>
+  </si>
+  <si>
+    <t>R2B.010</t>
+  </si>
+  <si>
+    <t>R2B.011</t>
+  </si>
+  <si>
+    <t>R2B.012</t>
+  </si>
+  <si>
+    <t>R2B.013</t>
+  </si>
+  <si>
+    <t>R2B.014</t>
+  </si>
+  <si>
+    <t>R2B.015</t>
+  </si>
+  <si>
+    <t>R2B.016</t>
+  </si>
 </sst>
 </file>
 
@@ -1075,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1502"/>
+  <dimension ref="A1:E1582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1002" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1033" sqref="C1033:C1042"/>
+    <sheetView tabSelected="1" topLeftCell="A1483" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1513" sqref="B1513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27898,6 +27952,1436 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1503" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1503" s="1">
+        <v>0.29991898148148149</v>
+      </c>
+      <c r="C1503" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1504" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1504" s="1">
+        <v>0.30084490740740738</v>
+      </c>
+      <c r="C1504" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1505" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1505" s="1">
+        <v>0.30302083333333335</v>
+      </c>
+      <c r="C1505" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1506" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1506" s="1">
+        <v>0.30681712962962965</v>
+      </c>
+      <c r="C1506" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1507" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1507" s="1">
+        <v>0.30850694444444443</v>
+      </c>
+      <c r="C1507" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1508" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1508" s="1">
+        <v>0.30908564814814815</v>
+      </c>
+      <c r="C1508" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1509" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1509" s="1">
+        <v>0.31103009259259257</v>
+      </c>
+      <c r="C1509" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1510" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1510" s="1">
+        <v>0.31482638888888886</v>
+      </c>
+      <c r="C1510" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1511" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1511" s="1">
+        <v>0.31712962962962959</v>
+      </c>
+      <c r="C1511" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1512" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1512" s="1">
+        <v>0.31771990740740741</v>
+      </c>
+      <c r="C1512" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1513" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1513" s="1">
+        <f>B1503+(2/24)</f>
+        <v>0.38325231481481481</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1514" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1514" s="1">
+        <f t="shared" ref="B1514:B1577" si="26">B1504+(2/24)</f>
+        <v>0.3841782407407407</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1515" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1515" s="1">
+        <f t="shared" si="26"/>
+        <v>0.38635416666666667</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1516" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1516" s="1">
+        <f t="shared" si="26"/>
+        <v>0.39015046296296296</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1517" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1517" s="1">
+        <f t="shared" si="26"/>
+        <v>0.39184027777777775</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1518" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1518" s="1">
+        <f t="shared" si="26"/>
+        <v>0.39241898148148147</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1519" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1519" s="1">
+        <f t="shared" si="26"/>
+        <v>0.39436342592592588</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1520" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1520" s="1">
+        <f t="shared" si="26"/>
+        <v>0.39815972222222218</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1521" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1521" s="1">
+        <f t="shared" si="26"/>
+        <v>0.40046296296296291</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1522" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1522" s="1">
+        <f t="shared" si="26"/>
+        <v>0.40105324074074072</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1523" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1523" s="1">
+        <f t="shared" si="26"/>
+        <v>0.46658564814814812</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1524" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1524" s="1">
+        <f t="shared" si="26"/>
+        <v>0.46751157407407401</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1525" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1525" s="1">
+        <f t="shared" si="26"/>
+        <v>0.46968749999999998</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1526" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1526" s="1">
+        <f t="shared" si="26"/>
+        <v>0.47348379629629628</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1527" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1527" s="1">
+        <f t="shared" si="26"/>
+        <v>0.47517361111111106</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1528" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1528" s="1">
+        <f t="shared" si="26"/>
+        <v>0.47575231481481478</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1529" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1529" s="1">
+        <f t="shared" si="26"/>
+        <v>0.4776967592592592</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1530" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1530" s="1">
+        <f t="shared" si="26"/>
+        <v>0.48149305555555549</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1531" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1531" s="1">
+        <f t="shared" si="26"/>
+        <v>0.48379629629629622</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1532" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1532" s="1">
+        <f t="shared" si="26"/>
+        <v>0.48438657407407404</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1533" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1533" s="1">
+        <f t="shared" si="26"/>
+        <v>0.54991898148148144</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1534" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1534" s="1">
+        <f t="shared" si="26"/>
+        <v>0.55084490740740732</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1535" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1535" s="1">
+        <f t="shared" si="26"/>
+        <v>0.55302083333333329</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1536" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1536" s="1">
+        <f t="shared" si="26"/>
+        <v>0.55681712962962959</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1537" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1537" s="1">
+        <f t="shared" si="26"/>
+        <v>0.55850694444444438</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1538" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1538" s="1">
+        <f t="shared" si="26"/>
+        <v>0.5590856481481481</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1539" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1539" s="1">
+        <f t="shared" si="26"/>
+        <v>0.56103009259259251</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1540" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1540" s="1">
+        <f t="shared" si="26"/>
+        <v>0.56482638888888881</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1541" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1541" s="1">
+        <f t="shared" si="26"/>
+        <v>0.56712962962962954</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1542" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1542" s="1">
+        <f t="shared" si="26"/>
+        <v>0.56771990740740741</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1543" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1543" s="1">
+        <f t="shared" si="26"/>
+        <v>0.63325231481481481</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1544" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1544" s="1">
+        <f t="shared" si="26"/>
+        <v>0.6341782407407407</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1545" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1545" s="1">
+        <f t="shared" si="26"/>
+        <v>0.63635416666666667</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1546" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1546" s="1">
+        <f t="shared" si="26"/>
+        <v>0.64015046296296296</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1547" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1547" s="1">
+        <f t="shared" si="26"/>
+        <v>0.64184027777777775</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1548" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1548" s="1">
+        <f t="shared" si="26"/>
+        <v>0.64241898148148147</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1549" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1549" s="1">
+        <f t="shared" si="26"/>
+        <v>0.64436342592592588</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1550" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1550" s="1">
+        <f t="shared" si="26"/>
+        <v>0.64815972222222218</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1551" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1551" s="1">
+        <f t="shared" si="26"/>
+        <v>0.65046296296296291</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1552" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1552" s="1">
+        <f t="shared" si="26"/>
+        <v>0.65105324074074078</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1553" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1553" s="1">
+        <f t="shared" si="26"/>
+        <v>0.71658564814814818</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1554" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1554" s="1">
+        <f t="shared" si="26"/>
+        <v>0.71751157407407407</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1555" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1555" s="1">
+        <f t="shared" si="26"/>
+        <v>0.71968750000000004</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1556" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1556" s="1">
+        <f t="shared" si="26"/>
+        <v>0.72348379629629633</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1557" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1557" s="1">
+        <f t="shared" si="26"/>
+        <v>0.72517361111111112</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1558" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1558" s="1">
+        <f t="shared" si="26"/>
+        <v>0.72575231481481484</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1559" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1559" s="1">
+        <f t="shared" si="26"/>
+        <v>0.72769675925925925</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1560" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1560" s="1">
+        <f t="shared" si="26"/>
+        <v>0.73149305555555555</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1561" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1561" s="1">
+        <f t="shared" si="26"/>
+        <v>0.73379629629629628</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1562" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1562" s="1">
+        <f t="shared" si="26"/>
+        <v>0.73438657407407415</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1563" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1563" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79991898148148155</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1564" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1564" s="1">
+        <f t="shared" si="26"/>
+        <v>0.80084490740740744</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1565" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1565" s="1">
+        <f t="shared" si="26"/>
+        <v>0.80302083333333341</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1566" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1566" s="1">
+        <f t="shared" si="26"/>
+        <v>0.8068171296296297</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1567" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1567" s="1">
+        <f t="shared" si="26"/>
+        <v>0.80850694444444449</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1568" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1568" s="1">
+        <f t="shared" si="26"/>
+        <v>0.80908564814814821</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1569" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1569" s="1">
+        <f t="shared" si="26"/>
+        <v>0.81103009259259262</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1570" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1570" s="1">
+        <f t="shared" si="26"/>
+        <v>0.81482638888888892</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1571" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1571" s="1">
+        <f t="shared" si="26"/>
+        <v>0.81712962962962965</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1572" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1572" s="1">
+        <f t="shared" si="26"/>
+        <v>0.81771990740740752</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1573" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1573" s="1">
+        <f t="shared" si="26"/>
+        <v>0.88325231481481492</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1574" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1574" s="1">
+        <f t="shared" si="26"/>
+        <v>0.88417824074074081</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1575" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1575" s="1">
+        <f t="shared" si="26"/>
+        <v>0.88635416666666678</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1576" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1576" s="1">
+        <f t="shared" si="26"/>
+        <v>0.89015046296296307</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1577" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1577" s="1">
+        <f t="shared" si="26"/>
+        <v>0.89184027777777786</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1578" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1578" s="1">
+        <f t="shared" ref="B1578:B1582" si="27">B1568+(2/24)</f>
+        <v>0.89241898148148158</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1579" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1579" s="1">
+        <f t="shared" si="27"/>
+        <v>0.89436342592592599</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1580" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1580" s="1">
+        <f t="shared" si="27"/>
+        <v>0.89815972222222229</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1581" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1581" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90046296296296302</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1582" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1582" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90105324074074089</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
